--- a/experiment_results/SBFL_ONLY/Summary/Elevator/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/Elevator/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Worst rank</t>
+  </si>
+  <si>
+    <t>Best exam</t>
+  </si>
+  <si>
+    <t>Worst exam</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +520,22 @@
         <v>111.672131147541</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.162617096018736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>24.9268149882904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,7 +543,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +662,22 @@
         <v>101.8770491803279</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.90463992974239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>22.74041276346604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -647,7 +685,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,6 +804,22 @@
         <v>191.2868852459016</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.90281030444965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>42.69796545667447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -773,7 +827,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +946,22 @@
         <v>296.9672131147541</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>12.12492681498831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>66.28732435597188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -899,7 +969,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1018,6 +1088,22 @@
         <v>296.9672131147541</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>12.12492681498831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>66.28732435597188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,6 +1230,22 @@
         <v>186.6475409836065</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.295374707259954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>41.66239754098361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1270,6 +1372,22 @@
         <v>108.4262295081967</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.063012295081968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>24.20228337236534</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1277,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,6 +1514,22 @@
         <v>125.0819672131148</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5.122950819672131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>27.92008196721311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1403,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1522,6 +1656,22 @@
         <v>340.4098360655738</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>26.88085480093671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>75.98433840749414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1529,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,6 +1798,22 @@
         <v>101.8770491803279</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.90463992974239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>22.74041276346604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1655,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,6 +1940,22 @@
         <v>101.8770491803279</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.90463992974239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>22.74041276346604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1781,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1900,6 +2082,22 @@
         <v>103.1475409836066</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.216700819672132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>23.02400468384074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2026,6 +2224,22 @@
         <v>340.4098360655738</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>26.88085480093671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>75.98433840749414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2033,7 +2247,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2152,6 +2366,22 @@
         <v>340.4098360655738</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>26.88085480093671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>75.98433840749414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2159,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2278,6 +2508,22 @@
         <v>340.4098360655738</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>26.88085480093671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>75.98433840749414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2285,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2404,6 +2650,22 @@
         <v>105.9344262295082</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.083943208430914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>23.64607728337236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2411,7 +2673,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2530,6 +2792,22 @@
         <v>180.4098360655738</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.9989754098360663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>40.27005269320841</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,7 +2815,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2656,6 +2934,22 @@
         <v>340.4098360655738</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>26.88085480093671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>75.98433840749414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2782,6 +3076,22 @@
         <v>298.5409836065574</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>11.84865339578455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>66.63861241217795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2789,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2908,6 +3218,22 @@
         <v>101.8770491803279</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.90463992974239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>22.74041276346604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2915,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3034,6 +3360,22 @@
         <v>101.8770491803279</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.90463992974239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>22.74041276346604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3041,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3160,6 +3502,22 @@
         <v>186.0573770491803</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.9989754098360663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>41.53066451990631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3167,7 +3525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,6 +3644,22 @@
         <v>109.5081967213115</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.128659250585479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>24.44379391100702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3293,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3412,6 +3786,22 @@
         <v>111.3934426229508</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.51492974238876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>24.86460772833722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3419,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3538,6 +3928,22 @@
         <v>111.672131147541</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.162617096018736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>24.9268149882904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3545,7 +3951,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3664,6 +4070,22 @@
         <v>103.3770491803279</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.200234192037472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>23.07523419203747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3671,7 +4093,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,6 +4212,22 @@
         <v>125.0819672131148</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5.122950819672131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>27.92008196721311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3797,7 +4235,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3916,6 +4354,22 @@
         <v>340.4098360655738</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>26.88085480093671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>75.98433840749414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,7 +4377,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,6 +4496,22 @@
         <v>340.4098360655738</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>26.88085480093671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>75.98433840749414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4049,7 +4519,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4168,6 +4638,22 @@
         <v>128.5655737704918</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.004464285714287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>28.69767271662765</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment_results/SBFL_ONLY/Summary/Elevator/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/Elevator/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="10">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Proportion of cases that found bugs</t>
+  </si>
+  <si>
+    <t>Num of cases that found bugs (Hit@x)</t>
   </si>
   <si>
     <t>Best rank</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1038251366120219</v>
+        <v>0.1031420765027322</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -442,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2308743169398905</v>
+        <v>0.2301912568306011</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2472677595628413</v>
+        <v>0.2465846994535519</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2773224043715845</v>
+        <v>0.2766393442622951</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,32 +511,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>9.688524590163935</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>111.672131147541</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>2.162617096018736</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>24.9268149882904</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>24.92681498829039</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +589,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08060109289617487</v>
+        <v>0.08060109289617486</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -576,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1598360655737705</v>
+        <v>0.1591530054644809</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -584,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2786885245901637</v>
+        <v>0.2780054644808744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -592,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2855191256830599</v>
+        <v>0.2848360655737705</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -600,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2950819672131147</v>
+        <v>0.2943989071038252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -650,32 +696,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.532786885245901</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>101.8770491803279</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.90463992974239</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>22.74041276346604</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>22.74041276346603</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +774,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08060109289617487</v>
+        <v>0.08060109289617486</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -718,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1598360655737705</v>
+        <v>0.1591530054644809</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -726,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2786885245901637</v>
+        <v>0.2780054644808744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2855191256830599</v>
+        <v>0.2848360655737705</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -742,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2950819672131147</v>
+        <v>0.2943989071038252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -792,32 +881,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.524590163934427</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>191.2868852459016</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.90281030444965</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>42.69796545667447</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>42.6979654566745</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +959,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -860,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1338797814207651</v>
+        <v>0.1331967213114754</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -868,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2336065573770489</v>
+        <v>0.2329234972677596</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -876,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2336065573770489</v>
+        <v>0.2329234972677596</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -884,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885243</v>
+        <v>0.241120218579235</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -934,32 +1066,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>54.31967213114754</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>296.9672131147541</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>12.12492681498831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>66.28732435597188</v>
+      <c r="C19">
+        <v>12.1249268149883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>66.2873243559719</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1002,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1338797814207651</v>
+        <v>0.1331967213114754</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1010,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2336065573770489</v>
+        <v>0.2329234972677596</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1018,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2336065573770489</v>
+        <v>0.2329234972677596</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1026,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885243</v>
+        <v>0.241120218579235</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,32 +1251,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>54.31967213114754</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>296.9672131147541</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>12.12492681498831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>66.28732435597188</v>
+      <c r="C19">
+        <v>12.1249268149883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>66.2873243559719</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1953551912568304</v>
+        <v>0.1946721311475409</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1152,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2786885245901637</v>
+        <v>0.2780054644808744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1160,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2786885245901637</v>
+        <v>0.2780054644808744</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1168,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2882513661202185</v>
+        <v>0.287568306010929</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1218,32 +1436,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.80327868852459</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>186.6475409836065</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.295374707259954</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>41.66239754098361</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>41.66239754098362</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1278,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1051912568306012</v>
+        <v>0.1051912568306011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1286,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2131147540983604</v>
+        <v>0.212431693989071</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1294,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.301912568306011</v>
+        <v>0.3012295081967213</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1302,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3306010928961752</v>
+        <v>0.334016393442623</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1310,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3647540983606563</v>
+        <v>0.3681693989071039</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1360,32 +1621,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.762295081967213</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>108.4262295081967</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.063012295081968</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>24.20228337236534</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>24.20228337236532</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1502,31 +1806,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>22.95081967213115</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>125.0819672131148</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>5.122950819672131</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>27.92008196721311</v>
       </c>
     </row>
@@ -1537,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1562,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1570,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1256830601092897</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1578,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2062841530054644</v>
+        <v>0.2056010928961749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1586,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2240437158469945</v>
+        <v>0.2226775956284153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1594,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885246</v>
+        <v>0.2404371584699453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1644,31 +1991,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>120.4262295081967</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>340.4098360655738</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>26.88085480093671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>26.88085480093676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>75.98433840749414</v>
       </c>
     </row>
@@ -1679,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08060109289617487</v>
+        <v>0.08060109289617486</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1712,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1598360655737705</v>
+        <v>0.1591530054644809</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1720,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2786885245901637</v>
+        <v>0.2780054644808744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1728,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2855191256830599</v>
+        <v>0.2848360655737705</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1736,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2950819672131147</v>
+        <v>0.2943989071038252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1786,32 +2176,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.532786885245901</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>101.8770491803279</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.90463992974239</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>22.74041276346604</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>22.74041276346603</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1846,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08060109289617487</v>
+        <v>0.08060109289617486</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1854,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1598360655737705</v>
+        <v>0.1591530054644809</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1862,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2786885245901637</v>
+        <v>0.2780054644808744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1870,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2855191256830599</v>
+        <v>0.2848360655737705</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1878,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2950819672131147</v>
+        <v>0.2943989071038252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1928,32 +2361,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.532786885245901</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>101.8770491803279</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.90463992974239</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>22.74041276346604</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>22.74041276346603</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1996,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1953551912568304</v>
+        <v>0.1946721311475409</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2004,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2814207650273222</v>
+        <v>0.2807377049180328</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2012,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2814207650273222</v>
+        <v>0.2807377049180328</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2020,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.290983606557377</v>
+        <v>0.2903005464480874</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2070,31 +2546,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.450819672131147</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>103.1475409836066</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.216700819672132</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>23.02400468384074</v>
       </c>
     </row>
@@ -2105,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2138,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1256830601092897</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2146,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2062841530054644</v>
+        <v>0.2056010928961749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2154,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2240437158469945</v>
+        <v>0.2226775956284153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2162,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885246</v>
+        <v>0.2404371584699453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2212,31 +2731,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>120.4262295081967</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>340.4098360655738</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>26.88085480093671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>26.88085480093676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>75.98433840749414</v>
       </c>
     </row>
@@ -2247,7 +2809,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2280,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1256830601092897</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2288,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2062841530054644</v>
+        <v>0.2056010928961749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2296,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2240437158469945</v>
+        <v>0.2226775956284153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2304,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885246</v>
+        <v>0.2404371584699453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2354,31 +2916,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>120.4262295081967</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>340.4098360655738</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>26.88085480093671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>26.88085480093676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>75.98433840749414</v>
       </c>
     </row>
@@ -2389,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2414,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2422,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1256830601092897</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2430,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2062841530054644</v>
+        <v>0.2056010928961749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2438,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2240437158469945</v>
+        <v>0.2226775956284153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2446,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885246</v>
+        <v>0.2404371584699453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2496,31 +3101,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>120.4262295081967</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>340.4098360655738</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>26.88085480093671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>26.88085480093676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>75.98433840749414</v>
       </c>
     </row>
@@ -2531,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2556,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06420765027322403</v>
+        <v>0.06420765027322405</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2564,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1407103825136612</v>
+        <v>0.1441256830601093</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2572,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.187158469945355</v>
+        <v>0.1905737704918033</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2580,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1939890710382512</v>
+        <v>0.1974043715846995</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2588,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.210382513661202</v>
+        <v>0.2137978142076503</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2638,32 +3286,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>9.336065573770492</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>105.9344262295082</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>2.083943208430914</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>23.64607728337236</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>23.64607728337235</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2698,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1051912568306012</v>
+        <v>0.1051912568306011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2706,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2021857923497265</v>
+        <v>0.2015027322404371</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2714,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.296448087431694</v>
+        <v>0.2957650273224045</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2722,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3224043715846996</v>
+        <v>0.3258196721311475</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2730,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3565573770491808</v>
+        <v>0.3599726775956285</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2780,32 +3471,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.475409836065574</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>180.4098360655738</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.9989754098360663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>40.27005269320841</v>
+      <c r="C19">
+        <v>0.998975409836066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>40.27005269320843</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2840,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2848,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1256830601092897</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2856,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2062841530054644</v>
+        <v>0.2056010928961749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2864,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2240437158469945</v>
+        <v>0.2226775956284153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2872,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885246</v>
+        <v>0.2404371584699453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2922,31 +3656,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>120.4262295081967</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>340.4098360655738</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>26.88085480093671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>26.88085480093676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>75.98433840749414</v>
       </c>
     </row>
@@ -2957,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2982,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0710382513661202</v>
+        <v>0.07103825136612023</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2990,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1584699453551912</v>
+        <v>0.1577868852459016</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2998,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2513661202185789</v>
+        <v>0.2506830601092896</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3006,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2581967213114751</v>
+        <v>0.2575136612021858</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3014,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2622950819672127</v>
+        <v>0.2616120218579235</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3064,32 +3841,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>53.08196721311475</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>298.5409836065574</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>11.84865339578455</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>66.63861241217795</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>66.63861241217801</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3124,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08060109289617487</v>
+        <v>0.08060109289617486</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3132,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1598360655737705</v>
+        <v>0.1591530054644809</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3140,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2786885245901637</v>
+        <v>0.2780054644808744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3148,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2855191256830599</v>
+        <v>0.2848360655737705</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3156,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2950819672131147</v>
+        <v>0.2943989071038252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3206,32 +4026,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.532786885245901</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>101.8770491803279</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.90463992974239</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>22.74041276346604</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>22.74041276346603</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3266,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08060109289617487</v>
+        <v>0.08060109289617486</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3274,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1598360655737705</v>
+        <v>0.1591530054644809</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3282,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2786885245901637</v>
+        <v>0.2780054644808744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3290,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2855191256830599</v>
+        <v>0.2848360655737705</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3298,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2950819672131147</v>
+        <v>0.2943989071038252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3348,32 +4211,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.532786885245901</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>101.8770491803279</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.90463992974239</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>22.74041276346604</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>22.74041276346603</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3408,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1051912568306012</v>
+        <v>0.1051912568306011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3416,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2021857923497265</v>
+        <v>0.2015027322404371</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3424,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.296448087431694</v>
+        <v>0.2957650273224045</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3432,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3224043715846996</v>
+        <v>0.3258196721311475</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3440,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3565573770491808</v>
+        <v>0.3599726775956285</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3490,32 +4396,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.475409836065574</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>186.0573770491803</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.9989754098360663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>41.53066451990631</v>
+      <c r="C19">
+        <v>0.998975409836066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>41.53066451990632</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3558,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1147540983606558</v>
+        <v>0.1188524590163934</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3566,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1516393442622951</v>
+        <v>0.1557377049180328</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3574,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1516393442622951</v>
+        <v>0.1557377049180328</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3582,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1721311475409836</v>
+        <v>0.1762295081967213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3632,32 +4581,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>14.01639344262295</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>109.5081967213115</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.128659250585479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>24.44379391100702</v>
+      <c r="C19">
+        <v>3.128659250585477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>24.44379391100701</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3692,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09836065573770497</v>
+        <v>0.09836065573770492</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3700,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2158469945355189</v>
+        <v>0.2192622950819672</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3708,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.290983606557377</v>
+        <v>0.2943989071038252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3716,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.290983606557377</v>
+        <v>0.2943989071038252</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3724,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3114754098360658</v>
+        <v>0.3148907103825137</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3774,32 +4766,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.786885245901639</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>111.3934426229508</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.51492974238876</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>24.86460772833722</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>24.86460772833723</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3834,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3842,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1038251366120219</v>
+        <v>0.1031420765027322</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3850,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2308743169398905</v>
+        <v>0.2301912568306011</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3858,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2472677595628413</v>
+        <v>0.2465846994535519</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3866,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2773224043715845</v>
+        <v>0.2766393442622951</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3916,32 +4951,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>9.688524590163935</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>111.672131147541</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>2.162617096018736</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>24.9268149882904</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>24.92681498829039</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +5029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3984,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1953551912568304</v>
+        <v>0.1946721311475409</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3992,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2814207650273222</v>
+        <v>0.2807377049180328</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4000,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2814207650273222</v>
+        <v>0.2807377049180328</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4008,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2978142076502732</v>
+        <v>0.2971311475409836</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4058,32 +5136,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.377049180327869</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>103.3770491803279</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.200234192037472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>23.07523419203747</v>
+      <c r="C19">
+        <v>1.200234192037471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>23.07523419203746</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +5214,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4200,31 +5321,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>22.95081967213115</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>125.0819672131148</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>5.122950819672131</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>27.92008196721311</v>
       </c>
     </row>
@@ -4235,7 +5399,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4260,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4268,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1256830601092897</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4276,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2062841530054644</v>
+        <v>0.2056010928961749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4284,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2240437158469945</v>
+        <v>0.2226775956284153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4292,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885246</v>
+        <v>0.2404371584699453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4342,31 +5506,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>120.4262295081967</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>340.4098360655738</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>26.88085480093671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>26.88085480093676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>75.98433840749414</v>
       </c>
     </row>
@@ -4377,7 +5584,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4402,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06284153005464478</v>
+        <v>0.06284153005464481</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4410,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1256830601092897</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4418,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2062841530054644</v>
+        <v>0.2056010928961749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4426,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2240437158469945</v>
+        <v>0.2226775956284153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4434,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2418032786885246</v>
+        <v>0.2404371584699453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4484,31 +5691,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>120.4262295081967</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>340.4098360655738</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>26.88085480093671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>26.88085480093676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>75.98433840749414</v>
       </c>
     </row>
@@ -4519,7 +5769,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4544,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1051912568306012</v>
+        <v>0.1051912568306011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4552,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2021857923497265</v>
+        <v>0.2015027322404371</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4560,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.296448087431694</v>
+        <v>0.2957650273224045</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4568,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3224043715846996</v>
+        <v>0.3258196721311475</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4576,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3565573770491808</v>
+        <v>0.3599726775956285</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4626,32 +5876,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>128.5655737704918</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.004464285714287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>28.69767271662765</v>
+      <c r="C19">
+        <v>1.004464285714286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>28.69767271662763</v>
       </c>
     </row>
   </sheetData>
